--- a/meta/13-2-1.xlsx
+++ b/meta/13-2-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t xml:space="preserve">13.2 Включить меры реагирования на изменение климата в политику, стратегии и планирование на национальном уровне </t>
   </si>
   <si>
-    <t>13.2.1 Число стран, сообщивших о создании или введении в действие комплексной политики/стратегии/ плана, повышающих их способность адаптироваться к неблагоприятным последствиям изменения климата и содействующих развитию их потенциала противодействия климатическим изменениям и снижению выбросов парниковых газов таким образом, чтобы это не ставило под угрозу производство продовольствия (включая национальный адаптационный план, определяемый на национальном уровне вклад, национальную систему информирования населения, подготовку двухгодичного обновленного доклада или другое)</t>
-  </si>
-  <si>
     <t>Государственное агентство охраны окружающей среды и лесного хозяйства при Правительстве Кыргызской Республики</t>
   </si>
   <si>
@@ -116,18 +113,30 @@
   </si>
   <si>
     <t xml:space="preserve">www.ecology.gov.kg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2.1 Число стран с определяемыми на национальном уровне вкладами, долгосрочными стратегиями, национальными планами в области адаптации и сообщениями по вопросам адаптации в соответствии с информацией, которая предоставляется в секретариат Рамочной конвенции Организации Объединенных Наций об изменении климата
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,29 +203,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -528,7 +541,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,8 +577,8 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>28</v>
+      <c r="B4" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -579,7 +592,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -587,7 +600,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -595,7 +608,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -603,7 +616,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -611,7 +624,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -711,7 +724,7 @@
       <c r="B26" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
